--- a/tests/expected_outputs/DHS Report FY2022 Q4.xlsx
+++ b/tests/expected_outputs/DHS Report FY2022 Q4.xlsx
@@ -500,7 +500,7 @@
         <v>479</v>
       </c>
       <c r="D2">
-        <v>6093417</v>
+        <v>7711746</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -514,7 +514,7 @@
         <v>176</v>
       </c>
       <c r="D3">
-        <v>33351070</v>
+        <v>32881343</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -528,7 +528,7 @@
         <v>260</v>
       </c>
       <c r="D4">
-        <v>5275533</v>
+        <v>6986656</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -542,7 +542,7 @@
         <v>648</v>
       </c>
       <c r="D5">
-        <v>8576936</v>
+        <v>11370313</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -556,7 +556,7 @@
         <v>250</v>
       </c>
       <c r="D6">
-        <v>43747227</v>
+        <v>42022897</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -570,7 +570,7 @@
         <v>361</v>
       </c>
       <c r="D7">
-        <v>7236211</v>
+        <v>9941231</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -584,7 +584,7 @@
         <v>895</v>
       </c>
       <c r="D8">
-        <v>9021139</v>
+        <v>13053623</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -598,7 +598,7 @@
         <v>344</v>
       </c>
       <c r="D9">
-        <v>57311362</v>
+        <v>55462894</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -612,7 +612,7 @@
         <v>468</v>
       </c>
       <c r="D10">
-        <v>7919705</v>
+        <v>10756157</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -623,10 +623,10 @@
         <v>4</v>
       </c>
       <c r="C11">
-        <v>1191</v>
+        <v>1193</v>
       </c>
       <c r="D11">
-        <v>12805153</v>
+        <v>18382612</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -637,10 +637,10 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="D12">
-        <v>78201439</v>
+        <v>76978041</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -651,10 +651,10 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="D13">
-        <v>9210093</v>
+        <v>13049556</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -786,7 +786,7 @@
         <v>4480</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -797,7 +797,7 @@
         <v>14</v>
       </c>
       <c r="C5">
-        <v>99</v>
+        <v>32</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -811,10 +811,10 @@
         <v>15</v>
       </c>
       <c r="C6">
-        <v>14129</v>
+        <v>14196</v>
       </c>
       <c r="D6">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -828,7 +828,7 @@
         <v>2926</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -842,7 +842,7 @@
         <v>16363</v>
       </c>
       <c r="D8">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -853,7 +853,7 @@
         <v>11</v>
       </c>
       <c r="C9">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -881,10 +881,10 @@
         <v>13</v>
       </c>
       <c r="C11">
-        <v>6747</v>
+        <v>6762</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -895,7 +895,7 @@
         <v>14</v>
       </c>
       <c r="C12">
-        <v>105</v>
+        <v>38</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -909,10 +909,10 @@
         <v>15</v>
       </c>
       <c r="C13">
-        <v>19522</v>
+        <v>19597</v>
       </c>
       <c r="D13">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -926,7 +926,7 @@
         <v>4877</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -940,7 +940,7 @@
         <v>22543</v>
       </c>
       <c r="D15">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -951,7 +951,7 @@
         <v>11</v>
       </c>
       <c r="C16">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -979,10 +979,10 @@
         <v>13</v>
       </c>
       <c r="C18">
-        <v>8969</v>
+        <v>8984</v>
       </c>
       <c r="D18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -993,7 +993,7 @@
         <v>14</v>
       </c>
       <c r="C19">
-        <v>175</v>
+        <v>57</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1007,10 +1007,10 @@
         <v>15</v>
       </c>
       <c r="C20">
-        <v>24907</v>
+        <v>25033</v>
       </c>
       <c r="D20">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1024,7 +1024,7 @@
         <v>6637</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1038,7 +1038,7 @@
         <v>28548</v>
       </c>
       <c r="D22">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1049,7 +1049,7 @@
         <v>11</v>
       </c>
       <c r="C23">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -1077,10 +1077,10 @@
         <v>13</v>
       </c>
       <c r="C25">
-        <v>14214</v>
+        <v>14207</v>
       </c>
       <c r="D25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1091,7 +1091,7 @@
         <v>14</v>
       </c>
       <c r="C26">
-        <v>258</v>
+        <v>78</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -1105,10 +1105,10 @@
         <v>15</v>
       </c>
       <c r="C27">
-        <v>33135</v>
+        <v>33323</v>
       </c>
       <c r="D27">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1122,7 +1122,7 @@
         <v>8407</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1133,10 +1133,10 @@
         <v>17</v>
       </c>
       <c r="C29">
-        <v>40687</v>
+        <v>40665</v>
       </c>
       <c r="D29">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1186,19 +1186,19 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>431446</v>
+        <v>3220856</v>
       </c>
       <c r="C2">
-        <v>798342</v>
+        <v>5913807</v>
       </c>
       <c r="D2">
         <v>4024</v>
       </c>
       <c r="E2">
-        <v>288178869</v>
+        <v>4749021107</v>
       </c>
       <c r="F2">
-        <v>44301543</v>
+        <v>44461815</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1206,19 +1206,19 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>615346</v>
+        <v>4680171</v>
       </c>
       <c r="C3">
-        <v>1710060</v>
+        <v>12865665</v>
       </c>
       <c r="D3">
         <v>8630</v>
       </c>
       <c r="E3">
-        <v>489314316</v>
+        <v>8202568897</v>
       </c>
       <c r="F3">
-        <v>59102356</v>
+        <v>59035828</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1226,19 +1226,19 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>789849</v>
+        <v>5946691</v>
       </c>
       <c r="C4">
-        <v>2430059</v>
+        <v>18173965</v>
       </c>
       <c r="D4">
-        <v>12220</v>
+        <v>12216</v>
       </c>
       <c r="E4">
-        <v>602712421</v>
+        <v>10063526541</v>
       </c>
       <c r="F4">
-        <v>73630736</v>
+        <v>73781154</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1246,19 +1246,19 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1069210</v>
+        <v>8152156</v>
       </c>
       <c r="C5">
-        <v>2842223</v>
+        <v>21191831</v>
       </c>
       <c r="D5">
-        <v>14266</v>
+        <v>14224</v>
       </c>
       <c r="E5">
-        <v>705208764</v>
+        <v>11899487801</v>
       </c>
       <c r="F5">
-        <v>99904189</v>
+        <v>101174712</v>
       </c>
     </row>
   </sheetData>
@@ -1329,7 +1329,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1338</v>
+        <v>1340</v>
       </c>
       <c r="C5">
         <v>496</v>
